--- a/Conjoint Analysis with Mulitple Linear Regression - Brand Analysis.xlsx
+++ b/Conjoint Analysis with Mulitple Linear Regression - Brand Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67f69e9f3fea48ef/Desktop/self learn data science/analytics for marketer/lecture 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/67f69e9f3fea48ef/Desktop/self learn data science/machine learning algorithms/marketing analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A1664BE-9792-4884-B86E-AA9DFB38D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{9A1664BE-9792-4884-B86E-AA9DFB38D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BC77B3A-0934-4D83-8DBC-615AD8423264}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mutiple linear regression outpu" sheetId="9" r:id="rId1"/>
@@ -18,17 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="Alpha">#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Data!$N$38</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Data!$O$38</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Data!$N$38</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Data!$O$38</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Data!$N$44</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Data!$O$44</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="69">
   <si>
     <t>SUMMARY OUTPUT</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Vriables</t>
   </si>
   <si>
-    <t>Utility</t>
-  </si>
-  <si>
     <t>Beta values</t>
   </si>
   <si>
@@ -248,12 +245,18 @@
   </si>
   <si>
     <t>Conjoint Analysis</t>
+  </si>
+  <si>
+    <t>Utility = Beta - min(Beta /range)</t>
+  </si>
+  <si>
+    <t>cust id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -316,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -372,49 +375,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,6 +512,895 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'mutiple linear regression outpu'!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'mutiple linear regression outpu'!$E$29:$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>brand</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>price</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>approved</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>guarentee</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'mutiple linear regression outpu'!$G$29:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C243-411A-BC9C-FAABA18463B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0EC270-C3A0-95AF-387B-DAA5DA4DD6FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -820,11 +1723,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -835,2177 +1738,2233 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="22.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.21875" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.9915362498905026</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>0.9831441348469212</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.96816114359973993</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.95257934441568037</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12">
         <v>476.33333333333331</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>59.541666666666664</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12">
         <v>65.617346938775512</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="8">
         <v>4.4924284112749445E-7</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13">
         <v>8.1666666666666661</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>0.90740740740740733</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>484.5</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="19">
         <v>4.833333333333333</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17">
         <v>0.63505289627712025</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>7.6109145579334454</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17">
         <v>3.2891841195805897E-5</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>3.3967438752643</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
         <v>6.2699227914023661</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>3.3967438752643</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>6.2699227914023661</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="19">
         <v>-4.4999999999999973</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18">
         <v>0.54997194092287005</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>-8.1822356108729064</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18">
         <v>1.8481212302275909E-5</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
         <v>-5.7441229654966994</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
         <v>-3.2558770345032952</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18">
         <v>-5.7441229654966994</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>-3.2558770345032952</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="19">
         <v>3.4999999999999996</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19">
         <v>0.54997194092287016</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>6.3639610306789285</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19">
         <v>1.3070339329353112E-4</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>2.2558770345032975</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
         <v>4.7441229654967021</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>2.2558770345032975</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>4.7441229654967021</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="19">
         <v>-1.4999999999999978</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20">
         <v>0.54997194092287027</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>-2.7274118702909651</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20">
         <v>2.3323127679942029E-2</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>-2.7441229654967003</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
         <v>-0.25587703450329546</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>-2.7441229654967003</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>-0.25587703450329546</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="19">
         <v>-1.9999999999999987</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21">
         <v>0.54997194092287027</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>-3.6365491603879563</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21">
         <v>5.429971037569088E-3</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>-3.2441229654967012</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
         <v>-0.75587703450329635</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>-3.2441229654967012</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>-0.75587703450329635</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="19">
         <v>7.6666666666666661</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22">
         <v>0.54997194092287016</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>13.940105114820511</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22">
         <v>2.1282150960091372E-7</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>6.422543701169964</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22">
         <v>8.9107896321633682</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>6.422543701169964</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>8.9107896321633682</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="19">
         <v>4.8333333333333348</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23">
         <v>0.54997194092287038</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>8.7883271376042345</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23">
         <v>1.0368876048699003E-5</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>3.5892103678366318</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23">
         <v>6.0774562988300378</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23">
         <v>3.5892103678366318</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23">
         <v>6.0774562988300378</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="19">
         <v>1.4999999999999993</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24">
         <v>0.47628967220784019</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>3.149343955006942</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24">
         <v>1.1749949516685102E-2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24">
         <v>0.42255790644822433</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24">
         <v>2.5774420935517743</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24">
         <v>0.42255790644822433</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24">
         <v>2.5774420935517743</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="19">
         <v>4.5000000000000009</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>0.47628967220784019</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>9.4480318650208321</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>5.7282254413805913E-6</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>3.4225579064482261</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>5.5774420935517757</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <v>3.4225579064482261</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <v>5.5774420935517757</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="10"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="10"/>
-      <c r="E28" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>65</v>
+      <c r="G28" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11">
         <v>8</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="15">
         <v>0.33</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="11">
         <v>2</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="15">
         <v>0.08</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F31">
         <f>F45+F46</f>
         <v>12.5</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>0.32</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>1</v>
-      </c>
-      <c r="B32" s="24">
+      <c r="A32" s="11">
+        <v>1</v>
+      </c>
+      <c r="B32" s="11">
         <v>6.5000000000000036</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="11">
         <v>-0.50000000000000355</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="11">
         <v>1.5</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="15">
         <v>0.06</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="A33" s="11">
         <v>2</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="11">
         <v>7.6666666666666732</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="11">
         <v>0.33333333333332682</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11">
         <v>4.5</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="15">
         <v>0.19</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="A34" s="11">
         <v>3</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="11">
         <v>1.833333333333335</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="11">
         <v>0.16666666666666496</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11">
         <v>23.67</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="A35" s="11">
         <v>4</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="11">
         <v>17.666666666666668</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="11">
         <v>-0.66666666666666785</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="A36" s="11">
         <v>5</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="11">
         <v>6.3333333333333339</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="11">
         <v>-1.3333333333333339</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="14" t="s">
+      <c r="F36" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="G36" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="I36" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="A37" s="11">
         <v>6</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="11">
         <v>15.999999999999998</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="11">
         <v>1.7763568394002505E-15</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="11">
         <v>3.5</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="11">
         <f>F37-MIN(F37/8)</f>
         <v>3.0625</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+      <c r="A38" s="11">
         <v>7</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="11">
         <v>7.8333333333333357</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="11">
         <v>-0.8333333333333357</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="13">
-        <v>0</v>
-      </c>
-      <c r="G38" s="13">
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
         <f t="shared" ref="G38:G39" si="0">F38-MIN(F38/8)</f>
         <v>0</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="A39" s="11">
         <v>8</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="11">
         <v>12</v>
       </c>
-      <c r="C39" s="24">
-        <v>0</v>
-      </c>
-      <c r="E39" s="15" t="s">
+      <c r="C39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="11">
         <v>-4.5</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="11">
         <f t="shared" si="0"/>
         <v>-3.9375</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="18">
         <v>1.19</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="A40" s="11">
         <v>9</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="11">
         <v>9.6666666666666679</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="11">
         <v>0.33333333333333215</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="I40" s="19" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="I40" s="17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+      <c r="A41" s="11">
         <v>10</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="11">
         <v>0.33333333333333726</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="11">
         <v>0.66666666666666274</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="11">
         <v>-1.5</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="11">
         <f>F41-MIN(F41/2)</f>
         <v>-0.75</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A42" s="11">
         <v>11</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="11">
         <v>10.500000000000004</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="11">
         <v>0.49999999999999645</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="11">
         <v>-2</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="11">
         <f t="shared" ref="G42:G43" si="1">F42-MIN(F42/2)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="11">
         <v>12</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="11">
         <v>5.1666666666666705</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="11">
         <v>-1.1666666666666705</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="13">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="A44" s="11">
         <v>13</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="11">
         <v>14.5</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="11">
         <v>0.5</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+      <c r="A45" s="11">
         <v>14</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="11">
         <v>12.666666666666668</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="11">
         <v>0.33333333333333215</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <v>1.19</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>7.6666666666666661</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="11">
         <f>F45-MIN(F45/12.5)</f>
         <v>7.0533333333333328</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="A46" s="11">
         <v>15</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="11">
         <v>12.833333333333332</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="11">
         <v>1.1666666666666679</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="14">
         <v>1.39</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>4.8333333333333348</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="11">
         <f t="shared" ref="G46:G47" si="2">F46-MIN(F46/12.5)</f>
         <v>4.4466666666666681</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="A47" s="11">
         <v>16</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="11">
         <v>8.1666666666666696</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="11">
         <v>0.83333333333333037</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="14">
         <v>1.59</v>
       </c>
-      <c r="F47" s="12">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13">
+      <c r="F47" s="10">
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="10"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="A48" s="11">
         <v>17</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="11">
         <v>2.8333333333333344</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="11">
         <v>0.16666666666666563</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="A49" s="11">
         <v>18</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="11">
         <v>18.5</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="11">
         <v>-0.5</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>1.4999999999999993</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="11">
         <f>F49-MIN(F49/1.5)</f>
         <v>0.49999999999999978</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="11">
-        <v>0</v>
-      </c>
-      <c r="G50" s="13">
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
         <f>F50-MIN(F50/1.5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="16"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="13"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="10">
         <v>4.5</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="11">
         <f>F52-MIN(F52/4.5)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F53" s="12">
-        <v>0</v>
-      </c>
-      <c r="G53" s="13">
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="11">
         <f>F53-MIN(F53/4.5)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="5"/>
-    <col min="3" max="3" width="14.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="5"/>
-    <col min="7" max="7" width="16.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="5"/>
-    <col min="12" max="12" width="10.88671875" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="14.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="4"/>
+    <col min="8" max="8" width="16.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="4"/>
+    <col min="13" max="13" width="10.88671875" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>1.19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="6">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="D3" s="6">
         <v>1.39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="7">
+      <c r="G3" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="7">
+      <c r="C4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="D4" s="6">
         <v>1.59</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
         <v>1.39</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="7">
+      <c r="G5" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="7">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="D6" s="6">
         <v>1.59</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="7">
+      <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="D7" s="6">
         <v>1.19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="7">
+      <c r="G7" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
         <v>1.59</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7">
+      <c r="G8" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="7">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="D9" s="6">
         <v>1.19</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="6">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="7">
+      <c r="C10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="D10" s="6">
         <v>1.39</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7">
+      <c r="G10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>1.59</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="D12" s="6">
         <v>1.19</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7">
+      <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="C13" s="7">
+      <c r="D13" s="6">
         <v>1.39</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7">
+      <c r="G13" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
         <v>1.19</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="7">
+      <c r="G14" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="7">
+      <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
+      <c r="D15" s="6">
         <v>1.39</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="7">
+      <c r="G15" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="7">
+      <c r="C16" s="6">
         <v>3</v>
       </c>
-      <c r="C16" s="7">
+      <c r="D16" s="6">
         <v>1.59</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="7">
+      <c r="G16" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
         <v>1.39</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="7">
+      <c r="G17" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="7">
+      <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="7">
+      <c r="D18" s="6">
         <v>1.59</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="7">
+      <c r="G18" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="25">
+      <c r="C19" s="22">
         <v>3</v>
       </c>
-      <c r="C19" s="25">
+      <c r="D19" s="22">
         <v>1.19</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="F19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="G19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="F20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="J20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="K20" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <f>IF(A2="A",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B21" s="7">
-        <f>IF(A2="B",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="7">
-        <f>IF(B2=1,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <f>IF(B2=2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <f>IF(C2=1.19,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <f>IF(C2=1.39,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <f>IF(D2="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <f>IF(B2="A",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <f>IF(B2="B",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <f>IF(C2=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <f>IF(C2=2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
+        <f>IF(D2=1.19,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <f>IF(D2=1.39,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
         <f>IF(E2="Yes",1,0)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
+        <f>IF(F2="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
         <v>13</v>
       </c>
-      <c r="J21" s="7">
-        <f>19-I21</f>
+      <c r="K21" s="6">
+        <f>19-J21</f>
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <f t="shared" ref="A22:A38" si="0">IF(A3="A",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="B22" s="7">
-        <f t="shared" ref="B22:B38" si="1">IF(A3="B",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" ref="C22:C38" si="2">IF(B3=1,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
-        <f t="shared" ref="D22:D38" si="3">IF(B3=2,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" ref="E22:E38" si="4">IF(C3=1.19,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" ref="F22:F38" si="5">IF(C3=1.39,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" ref="G22:G38" si="6">IF(D3="Yes",1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" ref="H22:H38" si="7">IF(E3="Yes",1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <f t="shared" ref="B22:B38" si="0">IF(B3="A",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:C38" si="1">IF(B3="B",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:D38" si="2">IF(C3=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:E38" si="3">IF(C3=2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F38" si="4">IF(D3=1.19,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" ref="G22:G38" si="5">IF(D3=1.39,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" ref="H22:H38" si="6">IF(E3="Yes",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" ref="I22:I38" si="7">IF(F3="Yes",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="6">
         <v>11</v>
       </c>
-      <c r="J22" s="7">
-        <f t="shared" ref="J22:J38" si="8">19-I22</f>
+      <c r="K22" s="6">
+        <f t="shared" ref="K22:K38" si="8">19-J22</f>
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B23" s="7">
+      <c r="C23" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C23" s="7">
+      <c r="D23" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D23" s="7">
+      <c r="E23" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="G23" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I23" s="7">
+      <c r="J23" s="6">
         <v>17</v>
       </c>
-      <c r="J23" s="7">
+      <c r="K23" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B24" s="7">
+      <c r="C24" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C24" s="7">
+      <c r="D24" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="E24" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F24" s="7">
+      <c r="G24" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G24" s="7">
+      <c r="H24" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I24" s="7">
+      <c r="J24" s="6">
         <v>2</v>
       </c>
-      <c r="J24" s="7">
+      <c r="K24" s="6">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B25" s="7">
+      <c r="C25" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C25" s="7">
+      <c r="D25" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D25" s="7">
+      <c r="E25" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F25" s="7">
+      <c r="G25" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G25" s="7">
+      <c r="H25" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="J25" s="6">
         <v>14</v>
       </c>
-      <c r="J25" s="7">
+      <c r="K25" s="6">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B26" s="7">
+      <c r="C26" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C26" s="7">
+      <c r="D26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="E26" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F26" s="7">
+      <c r="G26" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G26" s="7">
+      <c r="H26" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="7">
+      <c r="J26" s="6">
         <v>3</v>
       </c>
-      <c r="J26" s="7">
+      <c r="K26" s="6">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B27" s="7">
+      <c r="C27" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C27" s="7">
+      <c r="D27" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D27" s="7">
+      <c r="E27" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F27" s="7">
+      <c r="G27" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G27" s="7">
+      <c r="H27" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I27" s="7">
+      <c r="J27" s="6">
         <v>12</v>
       </c>
-      <c r="J27" s="7">
+      <c r="K27" s="6">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B28" s="7">
+      <c r="C28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C28" s="7">
+      <c r="D28" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D28" s="7">
+      <c r="E28" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F28" s="7">
+      <c r="G28" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G28" s="7">
+      <c r="H28" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="J28" s="6">
         <v>7</v>
       </c>
-      <c r="J28" s="7">
+      <c r="K28" s="6">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B29" s="7">
+      <c r="C29" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C29" s="7">
+      <c r="D29" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D29" s="7">
+      <c r="E29" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F29" s="7">
+      <c r="G29" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H29" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I29" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J29" s="6">
         <v>9</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="6">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B30" s="7">
+      <c r="C30" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C30" s="7">
+      <c r="D30" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="E30" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F30" s="7">
+      <c r="G30" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I30" s="7">
+      <c r="J30" s="6">
         <v>18</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B31" s="7">
+      <c r="C31" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C31" s="7">
+      <c r="D31" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D31" s="7">
+      <c r="E31" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F31" s="7">
+      <c r="G31" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H31" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H31" s="7">
+      <c r="I31" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I31" s="7">
+      <c r="J31" s="6">
         <v>8</v>
       </c>
-      <c r="J31" s="7">
+      <c r="K31" s="6">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B32" s="7">
+      <c r="C32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32" s="7">
+      <c r="D32" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D32" s="7">
+      <c r="E32" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F32" s="7">
+      <c r="G32" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G32" s="7">
+      <c r="H32" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H32" s="7">
+      <c r="I32" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I32" s="7">
+      <c r="J32" s="6">
         <v>15</v>
       </c>
-      <c r="J32" s="7">
+      <c r="K32" s="6">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="C33" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C33" s="7">
+      <c r="D33" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D33" s="7">
+      <c r="E33" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F33" s="7">
+      <c r="G33" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H33" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I33" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I33" s="7">
+      <c r="J33" s="6">
         <v>4</v>
       </c>
-      <c r="J33" s="7">
+      <c r="K33" s="6">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="C34" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F34" s="7">
+      <c r="G34" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G34" s="7">
+      <c r="H34" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H34" s="7">
+      <c r="I34" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I34" s="7">
+      <c r="J34" s="6">
         <v>6</v>
       </c>
-      <c r="J34" s="7">
+      <c r="K34" s="6">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B35" s="7">
+      <c r="C35" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C35" s="7">
+      <c r="D35" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E35" s="7">
+      <c r="F35" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H35" s="7">
+      <c r="I35" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I35" s="7">
+      <c r="J35" s="6">
         <v>5</v>
       </c>
-      <c r="J35" s="7">
+      <c r="K35" s="6">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B36" s="7">
+      <c r="C36" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C36" s="7">
+      <c r="D36" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F36" s="7">
+      <c r="G36" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G36" s="7">
+      <c r="H36" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H36" s="7">
+      <c r="I36" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I36" s="7">
+      <c r="J36" s="6">
         <v>10</v>
       </c>
-      <c r="J36" s="7">
+      <c r="K36" s="6">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="C37" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C37" s="7">
+      <c r="D37" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F37" s="7">
+      <c r="G37" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G37" s="7">
+      <c r="H37" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H37" s="7">
+      <c r="I37" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I37" s="7">
+      <c r="J37" s="6">
         <v>16</v>
       </c>
-      <c r="J37" s="7">
+      <c r="K37" s="6">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B38" s="7">
+      <c r="C38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C38" s="7">
+      <c r="D38" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F38" s="7">
+      <c r="G38" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G38" s="7">
+      <c r="H38" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H38" s="7">
+      <c r="I38" s="6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="I38" s="7">
-        <v>1</v>
-      </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
+        <v>1</v>
+      </c>
+      <c r="K38" s="6">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="C40" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="D40" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="E40" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="F40" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="G40" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="H40" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="I40" s="23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>1</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>0</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>0</v>
-      </c>
-      <c r="B42" s="7">
-        <v>1</v>
-      </c>
-      <c r="C42" s="7">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>0</v>
-      </c>
-      <c r="B43" s="7">
-        <v>0</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0</v>
+      </c>
+      <c r="I41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>1</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0</v>
+      </c>
+      <c r="I43" s="6">
         <v>1</v>
       </c>
     </row>
